--- a/Projects/GMIUS/Data/Soup GMI KPI template v0.1.xlsx
+++ b/Projects/GMIUS/Data/Soup GMI KPI template v0.1.xlsx
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="90">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI Type</t>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">Scene Type</t>
@@ -189,40 +189,46 @@
     <t xml:space="preserve">Value 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Super Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEEF,CHICKEN,COOKING SAUCE ADD MEAT,CURRY,REMAINNG PROTEIN,SEAFOOD,SWEET AND SOUR,VEGETARIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPER_CATEGORY</t>
   </si>
   <si>
-    <t xml:space="preserve">SOUP</t>
+    <t xml:space="preserve">target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"RTS Only,Condensed Only,Both RTS and Condensed,No Racks"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Directly next to non-refrigerated soup,In the same aisle, not directly adjacent to non-refrigerated soup,Not in the non-refrigerated soup aisle"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB_CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">READY TO EAT</t>
   </si>
   <si>
     <t xml:space="preserve">SEGMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEEF,CHICKEN,COOKING SAUCE ADD MEAT,CURRY,REMAINNG PROTEIN,SEAFOOD,SWEET AND SOUR,VEGETARIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"RTS Only,Condensed Only,Both RTS and Condensed,No Racks"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Directly next to non-refrigerated soup,In the same aisle, not directly adjacent to non-refrigerated soup,Not in the non-refrigerated soup aisle"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">param2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB_CATEGORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">READY TO EAT</t>
   </si>
   <si>
     <t xml:space="preserve">MICROWAVEABLE</t>
@@ -367,7 +373,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -377,10 +383,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,17 +405,17 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.0888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.8703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.0851851851852"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.062962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.9666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -930,12 +932,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.2185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="96.7185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.0592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="104.266666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,9 +998,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>54</v>
@@ -1039,7 +1041,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
@@ -1047,10 +1049,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4555555555556"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.3481481481482"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.6592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,7 +1060,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1066,16 +1068,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1102,11 +1103,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8777777777778"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.7"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.6518518518518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,10 +1121,10 @@
         <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,10 +1132,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,10 +1143,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,16 +1154,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,16 +1171,16 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,10 +1188,10 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,16 +1199,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,10 +1216,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,16 +1227,16 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,16 +1244,16 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,16 +1261,16 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,16 +1278,16 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1313,11 +1314,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.6666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.8037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,7 +1332,7 @@
         <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,13 +1340,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,13 +1354,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1386,14 +1387,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.637037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.8296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.6518518518518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,16 +1421,16 @@
         <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,16 +1438,16 @@
         <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,16 +1455,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,16 +1472,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,16 +1489,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,16 +1506,16 @@
         <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,16 +1523,16 @@
         <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1558,12 +1559,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.6222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.6407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,16 +1589,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,10 +1606,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,16 +1617,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,16 +1634,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,10 +1651,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,16 +1662,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,10 +1679,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,10 +1690,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,16 +1701,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,16 +1718,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
